--- a/biology/Zoologie/José_Bonaparte/José_Bonaparte.xlsx
+++ b/biology/Zoologie/José_Bonaparte/José_Bonaparte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Bonaparte</t>
+          <t>José_Bonaparte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">José Fernando Bonaparte est un paléontologue argentin né à Rosario (province de Santa Fe) le 14 juin 1928 et mort le 18 février 2020[1] à Mercedes (province de Buenos Aires).
-Il découvre un grand nombre de dinosaures sud-américains et sert de mentor à une nouvelle génération de paléontologues comme Rodolfo Coria. Selon le paléontologue Peter Dodson de l'université de Pennsylvanie, « presqu'à lui seul, il réussit à faire de l'Argentine le sixième pays du monde en termes de dinosaures »[pas clair][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">José Fernando Bonaparte est un paléontologue argentin né à Rosario (province de Santa Fe) le 14 juin 1928 et mort le 18 février 2020 à Mercedes (province de Buenos Aires).
+Il découvre un grand nombre de dinosaures sud-américains et sert de mentor à une nouvelle génération de paléontologues comme Rodolfo Coria. Selon le paléontologue Peter Dodson de l'université de Pennsylvanie, « presqu'à lui seul, il réussit à faire de l'Argentine le sixième pays du monde en termes de dinosaures »[pas clair].
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Bonaparte</t>
+          <t>José_Bonaparte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,94 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">José Bonaparte est le fils d'un marin italien, sans lien proche avec la famille de l'empereur Napoléon Bonaparte. Il est né à Rosario (Argentine) – le même jour et au même lieu que Che Guevara – et a grandi à Mercedes (province de Buenos Aires). Malgré un manque de formation dans le domaine, il commence à collecter des fossiles dès son plus jeune âge, et crée même un musée dans sa ville. Plus tard, il devient conservateur de l'université nationale de Tucumán[Quoi ?] où il est nommé docteur honoris causa[3] en 1974. À la fin des années 1970, il devient scientifique du plus haut grade (senior scientist) au Musée national des sciences naturelles de Buenos Aires[4].
-Découvreur
-Diversité naturelle de l'Amérique du Sud
-Le supercontinent de la Pangée se sépara en Laurasie au nord et Gondwana au sud durant le Jurassique. Au cours du Crétacé, l'Amérique du Sud s'éloigna du reste de Gondwana. Cette division provoqua une différence d'évolution entre les biotopes du nord et du sud, et les animaux du sud passèrent pour très étranges à ceux qui étaient habitués à la faune plus au nord. José Bonaparte découvrit des faits corroborant cette division, ce qui fit que le paléontologue Robert Bakker le surnomma « Maître du Mésozoïque »[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">José Bonaparte est le fils d'un marin italien, sans lien proche avec la famille de l'empereur Napoléon Bonaparte. Il est né à Rosario (Argentine) – le même jour et au même lieu que Che Guevara – et a grandi à Mercedes (province de Buenos Aires). Malgré un manque de formation dans le domaine, il commence à collecter des fossiles dès son plus jeune âge, et crée même un musée dans sa ville. Plus tard, il devient conservateur de l'université nationale de Tucumán[Quoi ?] où il est nommé docteur honoris causa en 1974. À la fin des années 1970, il devient scientifique du plus haut grade (senior scientist) au Musée national des sciences naturelles de Buenos Aires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>José_Bonaparte</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jos%C3%A9_Bonaparte</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Découvreur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Diversité naturelle de l'Amérique du Sud</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le supercontinent de la Pangée se sépara en Laurasie au nord et Gondwana au sud durant le Jurassique. Au cours du Crétacé, l'Amérique du Sud s'éloigna du reste de Gondwana. Cette division provoqua une différence d'évolution entre les biotopes du nord et du sud, et les animaux du sud passèrent pour très étranges à ceux qui étaient habitués à la faune plus au nord. José Bonaparte découvrit des faits corroborant cette division, ce qui fit que le paléontologue Robert Bakker le surnomma « Maître du Mésozoïque ».
 En Amérique du Sud, les titanosauridés développèrent des armures et furent florissants, pendant que les sauropodes du continent nord disparaissaient et furent remplacés par de vastes hardes d'hadrosaures ; les théropodes carnivores étaient représentés par des  abelisauridés et d'étranges dinosaures comme le Carnotaure cornu, avec des membres courts et un nez écrasé. Des indications permettent de penser qu'un passage joignait l'Amérique du Nord et du Sud à la fin du Crétacé ; en effet des titanosaures ont été découverts au nord jusqu'en Utah et des hadrosauriens au sud jusqu'en Patagonie.
-Découvertes
-Abelisaurus comahuensis (1985, avec Novas), carnivore théropode, comme l'Allosaurus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>José_Bonaparte</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jos%C3%A9_Bonaparte</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Découvreur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Découvertes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abelisaurus comahuensis (1985, avec Novas), carnivore théropode, comme l'Allosaurus.
 Agustinia ligabuei (1998, anciennement Augustia), sauropode comme le Brachiosaurus  avec des plaques spinales comme le Stegosaurus
 Alvarezsaurus calvoi (1991), le premier et le plus primitif membre des dinosaures aux caractères aviaires Alvarezsauridea.
 Amargasaurus cazaui (1991, avec Salgado), diplodocidé comme le Diplodocus, avec des épines (et une voile ?) le long du dos.
@@ -548,31 +639,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jos%C3%A9_Bonaparte</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>José_Bonaparte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jos%C3%A9_Bonaparte</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Philosophie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">José Bonaparte est un traditionaliste et n'utilise pas la méthode cladistique moderne, qui applique le principe de parcimonie à un vaste champ de synapomorphies. En partie pour cette raison, il déclina l'offre qui lui était faite de travailler sur un nouveau traité :  « The Dinosauria ». Bien que beaucoup plus connu pour ses découvertes sur les dinosaures, il préfère l'étude des mammifères.
 </t>
